--- a/Archivos/archivo1_657241f153b95.xlsx
+++ b/Archivos/archivo1_657241f153b95.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>NÚMERO</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>12-750</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si>
     <t>E</t>
@@ -3634,10 +3637,7 @@
   <dimension ref="A1:AZ352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <pane xSplit="2" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3645,7 +3645,7 @@
     <col min="1" max="1" width="6.6328125" customWidth="true" style="9"/>
     <col min="2" max="2" width="12.36328125" customWidth="true" style="8"/>
     <col min="3" max="3" width="18.08984375" customWidth="true" style="8"/>
-    <col min="4" max="4" width="8.26953125" hidden="true" customWidth="true" style="8"/>
+    <col min="4" max="4" width="5.1796875" customWidth="true" style="8"/>
     <col min="5" max="5" width="2.90625" customWidth="true" style="7"/>
     <col min="6" max="6" width="15.7265625" customWidth="true" style="7"/>
     <col min="7" max="7" width="11.26953125" customWidth="true" style="8"/>
@@ -3806,103 +3806,95 @@
       <c r="C2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="E2" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="52">
-        <v>1</v>
-      </c>
-      <c r="L2" s="52">
-        <v>2</v>
-      </c>
-      <c r="M2" s="52">
-        <v>3</v>
-      </c>
-      <c r="N2" s="52">
-        <v>4</v>
-      </c>
-      <c r="O2" s="52">
-        <v>5</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
       <c r="P2" s="52">
         <v>1</v>
       </c>
       <c r="Q2" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R2" s="52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S2" s="57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T2" s="52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U2" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V2" s="52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W2" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X2" s="52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y2" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z2" s="52"/>
       <c r="AA2" s="52"/>
       <c r="AB2" s="52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC2" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD2" s="52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE2" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF2" s="52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG2" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH2" s="52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI2" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ2" s="52"/>
       <c r="AK2" s="52"/>
       <c r="AL2" s="52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM2" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN2" s="52"/>
       <c r="AO2" s="52"/>
@@ -3928,22 +3920,22 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="52"/>
@@ -3954,41 +3946,41 @@
         <v>1</v>
       </c>
       <c r="Q3" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R3" s="52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S3" s="57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T3" s="52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U3" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V3" s="52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X3" s="52"/>
       <c r="Y3" s="52"/>
       <c r="Z3" s="52"/>
       <c r="AA3" s="52"/>
       <c r="AB3" s="52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC3" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD3" s="52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE3" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF3" s="52"/>
       <c r="AG3" s="52"/>
@@ -4002,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="AO3" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP3" s="48"/>
       <c r="AQ3" s="48"/>
@@ -4026,22 +4018,22 @@
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" s="54"/>
       <c r="L4" s="54"/>
@@ -4052,19 +4044,19 @@
         <v>1</v>
       </c>
       <c r="Q4" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R4" s="52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S4" s="57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T4" s="52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U4" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V4" s="52"/>
       <c r="W4" s="52"/>
@@ -4073,10 +4065,10 @@
       <c r="Z4" s="52"/>
       <c r="AA4" s="52"/>
       <c r="AB4" s="52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC4" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD4" s="52"/>
       <c r="AE4" s="52"/>
@@ -4092,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="AO4" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP4" s="52"/>
       <c r="AQ4" s="52"/>
@@ -4112,20 +4104,20 @@
         <v>4</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
@@ -4133,24 +4125,24 @@
       <c r="L5" s="52"/>
       <c r="M5" s="52"/>
       <c r="N5" s="53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O5" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P5" s="52"/>
       <c r="Q5" s="52"/>
       <c r="R5" s="52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S5" s="57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T5" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U5" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V5" s="52"/>
       <c r="W5" s="52"/>
@@ -4159,20 +4151,20 @@
       <c r="Z5" s="52"/>
       <c r="AA5" s="52"/>
       <c r="AB5" s="52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC5" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD5" s="52"/>
       <c r="AE5" s="52"/>
       <c r="AF5" s="52"/>
       <c r="AG5" s="52"/>
       <c r="AH5" s="52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI5" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ5" s="52"/>
       <c r="AK5" s="52"/>
@@ -4182,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="AO5" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP5" s="48"/>
       <c r="AQ5" s="48"/>
@@ -4202,20 +4194,20 @@
         <v>5</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" s="52"/>
       <c r="J6" s="52"/>
@@ -4227,10 +4219,10 @@
       <c r="P6" s="52"/>
       <c r="Q6" s="52"/>
       <c r="R6" s="52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S6" s="57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T6" s="52"/>
       <c r="U6" s="52"/>
@@ -4256,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="AO6" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP6" s="48"/>
       <c r="AQ6" s="48"/>
@@ -4276,20 +4268,20 @@
         <v>6</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" s="52"/>
       <c r="J7" s="52"/>
@@ -4301,10 +4293,10 @@
       <c r="P7" s="52"/>
       <c r="Q7" s="52"/>
       <c r="R7" s="52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S7" s="57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T7" s="52"/>
       <c r="U7" s="52"/>
@@ -4330,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="AO7" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP7" s="48"/>
       <c r="AQ7" s="48"/>
@@ -4350,20 +4342,20 @@
         <v>7</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
@@ -4375,16 +4367,16 @@
       <c r="P8" s="52"/>
       <c r="Q8" s="52"/>
       <c r="R8" s="52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S8" s="57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T8" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U8" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V8" s="52"/>
       <c r="W8" s="52"/>
@@ -4408,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="AO8" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP8" s="48"/>
       <c r="AQ8" s="48"/>
@@ -4428,20 +4420,20 @@
         <v>8</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
@@ -4494,20 +4486,20 @@
         <v>9</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10" s="52"/>
       <c r="J10" s="52"/>
@@ -4529,10 +4521,10 @@
       <c r="Z10" s="52"/>
       <c r="AA10" s="52"/>
       <c r="AB10" s="52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC10" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD10" s="52"/>
       <c r="AE10" s="52"/>
@@ -4564,35 +4556,35 @@
         <v>10</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J11" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11" s="52"/>
       <c r="L11" s="52"/>
       <c r="M11" s="52"/>
       <c r="N11" s="53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O11" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P11" s="52"/>
       <c r="Q11" s="52"/>
@@ -4607,16 +4599,16 @@
       <c r="Z11" s="52"/>
       <c r="AA11" s="52"/>
       <c r="AB11" s="52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC11" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD11" s="52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE11" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF11" s="52"/>
       <c r="AG11" s="52"/>
@@ -4646,20 +4638,20 @@
         <v>11</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I12" s="52"/>
       <c r="J12" s="52"/>
@@ -4667,10 +4659,10 @@
       <c r="L12" s="54"/>
       <c r="M12" s="52"/>
       <c r="N12" s="48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O12" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P12" s="52"/>
       <c r="Q12" s="52"/>
@@ -4716,26 +4708,26 @@
         <v>12</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I13" s="52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J13" s="57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
@@ -4755,16 +4747,16 @@
       <c r="Z13" s="52"/>
       <c r="AA13" s="52"/>
       <c r="AB13" s="52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC13" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD13" s="52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE13" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF13" s="52"/>
       <c r="AG13" s="52"/>
@@ -4794,20 +4786,20 @@
         <v>13</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I14" s="52"/>
       <c r="J14" s="52"/>
@@ -4860,20 +4852,20 @@
         <v>14</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I15" s="52"/>
       <c r="J15" s="52"/>
@@ -4926,20 +4918,20 @@
         <v>15</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" s="47"/>
       <c r="E16" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I16" s="48"/>
       <c r="J16" s="48"/>
@@ -4992,26 +4984,26 @@
         <v>16</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K17" s="48"/>
       <c r="L17" s="48"/>
@@ -5066,16 +5058,16 @@
       </c>
       <c r="D18" s="47"/>
       <c r="E18" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I18" s="48"/>
       <c r="J18" s="48"/>
@@ -5132,16 +5124,16 @@
       </c>
       <c r="D19" s="47"/>
       <c r="E19" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I19" s="48"/>
       <c r="J19" s="48"/>
@@ -5194,20 +5186,20 @@
         <v>19</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="47"/>
       <c r="E20" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H20" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I20" s="48"/>
       <c r="J20" s="48"/>
@@ -5260,20 +5252,20 @@
         <v>20</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="47"/>
       <c r="E21" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21" s="48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I21" s="48"/>
       <c r="J21" s="48"/>
@@ -5326,35 +5318,35 @@
         <v>21</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" s="47"/>
       <c r="E22" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I22" s="52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K22" s="49"/>
       <c r="L22" s="49"/>
       <c r="M22" s="48"/>
       <c r="N22" s="52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O22" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
@@ -5369,16 +5361,16 @@
       <c r="Z22" s="48"/>
       <c r="AA22" s="48"/>
       <c r="AB22" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC22" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD22" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE22" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF22" s="48"/>
       <c r="AG22" s="48"/>
@@ -5408,20 +5400,20 @@
         <v>22</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" s="47"/>
       <c r="E23" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" s="48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H23" s="57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="48"/>
@@ -5443,20 +5435,20 @@
       <c r="Z23" s="48"/>
       <c r="AA23" s="48"/>
       <c r="AB23" s="48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC23" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD23" s="48"/>
       <c r="AE23" s="48"/>
       <c r="AF23" s="48"/>
       <c r="AG23" s="48"/>
       <c r="AH23" s="48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI23" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ23" s="48"/>
       <c r="AK23" s="48"/>
@@ -5486,22 +5478,22 @@
       </c>
       <c r="D24" s="47"/>
       <c r="E24" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H24" s="57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I24" s="48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J24" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K24" s="48"/>
       <c r="L24" s="48"/>
@@ -5511,28 +5503,28 @@
       <c r="P24" s="48"/>
       <c r="Q24" s="48"/>
       <c r="R24" s="46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S24" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="T24" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="T24" s="46" t="s">
-        <v>51</v>
-      </c>
       <c r="U24" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="V24" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="X24" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="V24" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="W24" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="X24" s="46" t="s">
-        <v>51</v>
-      </c>
       <c r="Y24" s="46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z24" s="48"/>
       <c r="AA24" s="48"/>
@@ -5552,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="AO24" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP24" s="48"/>
       <c r="AQ24" s="48"/>
@@ -5576,22 +5568,22 @@
       </c>
       <c r="D25" s="47"/>
       <c r="E25" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H25" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I25" s="46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J25" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K25" s="48"/>
       <c r="L25" s="48"/>
@@ -5602,13 +5594,13 @@
         <v>1</v>
       </c>
       <c r="Q25" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R25" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="S25" s="46" t="s">
         <v>53</v>
-      </c>
-      <c r="S25" s="46" t="s">
-        <v>52</v>
       </c>
       <c r="T25" s="48"/>
       <c r="U25" s="48"/>
@@ -5619,10 +5611,10 @@
       <c r="Z25" s="48"/>
       <c r="AA25" s="48"/>
       <c r="AB25" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC25" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD25" s="48"/>
       <c r="AE25" s="48"/>
@@ -5638,12 +5630,12 @@
         <v>1</v>
       </c>
       <c r="AO25" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP25" s="48"/>
       <c r="AQ25" s="55"/>
       <c r="AR25" s="59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS25" s="58"/>
       <c r="AT25" s="58"/>
@@ -5664,16 +5656,16 @@
       </c>
       <c r="D26" s="47"/>
       <c r="E26" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H26" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -5685,10 +5677,10 @@
       <c r="P26" s="48"/>
       <c r="Q26" s="48"/>
       <c r="R26" s="48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S26" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T26" s="48"/>
       <c r="U26" s="48"/>
@@ -5734,16 +5726,16 @@
       </c>
       <c r="D27" s="47"/>
       <c r="E27" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G27" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H27" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I27" s="48"/>
       <c r="J27" s="48"/>
@@ -5755,10 +5747,10 @@
       <c r="P27" s="48"/>
       <c r="Q27" s="48"/>
       <c r="R27" s="48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S27" s="46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T27" s="48"/>
       <c r="U27" s="48"/>
@@ -5775,10 +5767,10 @@
       <c r="AF27" s="48"/>
       <c r="AG27" s="48"/>
       <c r="AH27" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI27" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ27" s="48"/>
       <c r="AK27" s="48"/>
@@ -5788,12 +5780,12 @@
         <v>1</v>
       </c>
       <c r="AO27" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP27" s="48"/>
       <c r="AQ27" s="48"/>
       <c r="AR27" s="59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS27" s="13"/>
       <c r="AT27" s="13"/>
@@ -5814,22 +5806,22 @@
       </c>
       <c r="D28" s="47"/>
       <c r="E28" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G28" s="48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I28" s="48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J28" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K28" s="48"/>
       <c r="L28" s="48"/>
@@ -5840,19 +5832,19 @@
         <v>1</v>
       </c>
       <c r="Q28" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R28" s="48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S28" s="46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T28" s="48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U28" s="46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V28" s="48"/>
       <c r="W28" s="48"/>
@@ -5861,43 +5853,43 @@
       <c r="Z28" s="48"/>
       <c r="AA28" s="48"/>
       <c r="AB28" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC28" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD28" s="48"/>
       <c r="AE28" s="48"/>
       <c r="AF28" s="48"/>
       <c r="AG28" s="48"/>
       <c r="AH28" s="48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI28" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ28" s="48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK28" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL28" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM28" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN28" s="48">
         <v>1</v>
       </c>
       <c r="AO28" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP28" s="48"/>
       <c r="AQ28" s="48"/>
       <c r="AR28" s="59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AS28" s="13"/>
       <c r="AT28" s="13"/>
@@ -5918,16 +5910,16 @@
       </c>
       <c r="D29" s="47"/>
       <c r="E29" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G29" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H29" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I29" s="48"/>
       <c r="J29" s="48"/>
@@ -5939,22 +5931,22 @@
       <c r="P29" s="48"/>
       <c r="Q29" s="48"/>
       <c r="R29" s="52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S29" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="T29" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="T29" s="52" t="s">
-        <v>51</v>
-      </c>
       <c r="U29" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="V29" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="V29" s="52" t="s">
-        <v>51</v>
-      </c>
       <c r="W29" s="46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X29" s="48"/>
       <c r="Y29" s="48"/>
@@ -5967,16 +5959,16 @@
       <c r="AF29" s="48"/>
       <c r="AG29" s="48"/>
       <c r="AH29" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI29" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ29" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK29" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL29" s="48"/>
       <c r="AM29" s="48"/>
@@ -5985,7 +5977,7 @@
       <c r="AP29" s="48"/>
       <c r="AQ29" s="48"/>
       <c r="AR29" s="59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AS29" s="13"/>
       <c r="AT29" s="13"/>
@@ -6006,16 +5998,16 @@
       </c>
       <c r="D30" s="47"/>
       <c r="E30" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G30" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H30" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I30" s="48"/>
       <c r="J30" s="48"/>
@@ -6027,10 +6019,10 @@
       <c r="P30" s="48"/>
       <c r="Q30" s="48"/>
       <c r="R30" s="48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S30" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T30" s="48"/>
       <c r="U30" s="48"/>
@@ -6076,16 +6068,16 @@
       </c>
       <c r="D31" s="47"/>
       <c r="E31" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F31" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G31" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H31" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I31" s="48"/>
       <c r="J31" s="48"/>
@@ -6093,18 +6085,18 @@
       <c r="L31" s="49"/>
       <c r="M31" s="48"/>
       <c r="N31" s="48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O31" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P31" s="48"/>
       <c r="Q31" s="48"/>
       <c r="R31" s="48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S31" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T31" s="48"/>
       <c r="U31" s="48"/>
@@ -6115,10 +6107,10 @@
       <c r="Z31" s="48"/>
       <c r="AA31" s="48"/>
       <c r="AB31" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC31" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD31" s="48"/>
       <c r="AE31" s="48"/>
@@ -6129,10 +6121,10 @@
       <c r="AJ31" s="48"/>
       <c r="AK31" s="48"/>
       <c r="AL31" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM31" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN31" s="48"/>
       <c r="AO31" s="48"/>
@@ -6150,7 +6142,7 @@
     </row>
     <row r="32" spans="1:52" s="10" customFormat="1">
       <c r="A32" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" s="46">
         <v>31</v>
@@ -6160,22 +6152,22 @@
       </c>
       <c r="D32" s="47"/>
       <c r="E32" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F32" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G32" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H32" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I32" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J32" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K32" s="49"/>
       <c r="L32" s="49"/>
@@ -6195,16 +6187,16 @@
       <c r="Z32" s="48"/>
       <c r="AA32" s="48"/>
       <c r="AB32" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC32" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD32" s="48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE32" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF32" s="48"/>
       <c r="AG32" s="48"/>
@@ -6213,10 +6205,10 @@
       <c r="AJ32" s="48"/>
       <c r="AK32" s="48"/>
       <c r="AL32" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM32" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN32" s="48"/>
       <c r="AO32" s="48"/>
@@ -6242,16 +6234,16 @@
       </c>
       <c r="D33" s="47"/>
       <c r="E33" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F33" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G33" s="48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H33" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I33" s="48"/>
       <c r="J33" s="48"/>
@@ -6273,16 +6265,16 @@
       <c r="Z33" s="48"/>
       <c r="AA33" s="48"/>
       <c r="AB33" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC33" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD33" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE33" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF33" s="48"/>
       <c r="AG33" s="48"/>
@@ -6316,16 +6308,16 @@
       </c>
       <c r="D34" s="47"/>
       <c r="E34" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F34" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G34" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I34" s="48"/>
       <c r="J34" s="48"/>
@@ -6357,10 +6349,10 @@
       <c r="AJ34" s="48"/>
       <c r="AK34" s="48"/>
       <c r="AL34" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM34" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN34" s="48"/>
       <c r="AO34" s="48"/>
@@ -6386,31 +6378,31 @@
       </c>
       <c r="D35" s="47"/>
       <c r="E35" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F35" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H35" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I35" s="52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J35" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K35" s="49"/>
       <c r="L35" s="49"/>
       <c r="M35" s="48"/>
       <c r="N35" s="52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O35" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P35" s="48"/>
       <c r="Q35" s="48"/>
@@ -6460,16 +6452,16 @@
       </c>
       <c r="D36" s="47"/>
       <c r="E36" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F36" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G36" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H36" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I36" s="48"/>
       <c r="J36" s="48"/>
@@ -6477,10 +6469,10 @@
       <c r="L36" s="49"/>
       <c r="M36" s="48"/>
       <c r="N36" s="48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O36" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P36" s="48"/>
       <c r="Q36" s="48"/>
@@ -6505,10 +6497,10 @@
       <c r="AJ36" s="48"/>
       <c r="AK36" s="48"/>
       <c r="AL36" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM36" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN36" s="48"/>
       <c r="AO36" s="48"/>
@@ -6534,16 +6526,16 @@
       </c>
       <c r="D37" s="47"/>
       <c r="E37" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F37" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G37" s="48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H37" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I37" s="48"/>
       <c r="J37" s="48"/>
@@ -6600,16 +6592,16 @@
       </c>
       <c r="D38" s="47"/>
       <c r="E38" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F38" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G38" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H38" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
@@ -6641,10 +6633,10 @@
       <c r="AJ38" s="48"/>
       <c r="AK38" s="48"/>
       <c r="AL38" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM38" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN38" s="48"/>
       <c r="AO38" s="48"/>
@@ -6670,16 +6662,16 @@
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H39" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I39" s="48"/>
       <c r="J39" s="48"/>
@@ -6701,16 +6693,16 @@
       <c r="Z39" s="48"/>
       <c r="AA39" s="48"/>
       <c r="AB39" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC39" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD39" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE39" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF39" s="48"/>
       <c r="AG39" s="48"/>
@@ -6744,16 +6736,16 @@
       </c>
       <c r="D40" s="47"/>
       <c r="E40" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G40" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H40" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I40" s="48"/>
       <c r="J40" s="48"/>
@@ -6785,10 +6777,10 @@
       <c r="AJ40" s="48"/>
       <c r="AK40" s="48"/>
       <c r="AL40" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM40" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN40" s="48"/>
       <c r="AO40" s="48"/>
@@ -6814,16 +6806,16 @@
       </c>
       <c r="D41" s="47"/>
       <c r="E41" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F41" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G41" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H41" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I41" s="48"/>
       <c r="J41" s="48"/>
@@ -6880,16 +6872,16 @@
       </c>
       <c r="D42" s="47"/>
       <c r="E42" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F42" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G42" s="48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H42" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I42" s="48"/>
       <c r="J42" s="48"/>
@@ -6911,10 +6903,10 @@
       <c r="Z42" s="48"/>
       <c r="AA42" s="48"/>
       <c r="AB42" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC42" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD42" s="48"/>
       <c r="AE42" s="48"/>
@@ -6946,26 +6938,26 @@
         <v>42</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D43" s="47"/>
       <c r="E43" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F43" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G43" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H43" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I43" s="48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J43" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K43" s="49"/>
       <c r="L43" s="49"/>
@@ -6985,10 +6977,10 @@
       <c r="Z43" s="48"/>
       <c r="AA43" s="48"/>
       <c r="AB43" s="48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC43" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD43" s="48"/>
       <c r="AE43" s="48"/>
@@ -6999,10 +6991,10 @@
       <c r="AJ43" s="48"/>
       <c r="AK43" s="48"/>
       <c r="AL43" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM43" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN43" s="48"/>
       <c r="AO43" s="48"/>
@@ -7024,26 +7016,26 @@
         <v>43</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" s="47"/>
       <c r="E44" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F44" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G44" s="48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H44" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I44" s="48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J44" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K44" s="49"/>
       <c r="L44" s="49"/>
@@ -7054,7 +7046,7 @@
         <v>2</v>
       </c>
       <c r="Q44" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R44" s="48"/>
       <c r="S44" s="48"/>
@@ -7067,16 +7059,16 @@
       <c r="Z44" s="48"/>
       <c r="AA44" s="48"/>
       <c r="AB44" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC44" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD44" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE44" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF44" s="48"/>
       <c r="AG44" s="48"/>
@@ -7106,20 +7098,20 @@
         <v>44</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D45" s="47"/>
       <c r="E45" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F45" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G45" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H45" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I45" s="48"/>
       <c r="J45" s="48"/>
@@ -7172,20 +7164,20 @@
         <v>45</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D46" s="47"/>
       <c r="E46" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F46" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G46" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H46" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I46" s="48"/>
       <c r="J46" s="48"/>
@@ -7238,20 +7230,20 @@
         <v>46</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D47" s="47"/>
       <c r="E47" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F47" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G47" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H47" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I47" s="48"/>
       <c r="J47" s="48"/>
@@ -7259,10 +7251,10 @@
       <c r="L47" s="49"/>
       <c r="M47" s="48"/>
       <c r="N47" s="48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O47" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P47" s="48"/>
       <c r="Q47" s="48"/>
@@ -7308,20 +7300,20 @@
         <v>47</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D48" s="47"/>
       <c r="E48" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F48" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G48" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H48" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I48" s="48"/>
       <c r="J48" s="48"/>
@@ -7374,20 +7366,20 @@
         <v>48</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D49" s="47"/>
       <c r="E49" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F49" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G49" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H49" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I49" s="48"/>
       <c r="J49" s="48"/>
@@ -7440,26 +7432,26 @@
         <v>49</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D50" s="47"/>
       <c r="E50" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F50" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G50" s="48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H50" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I50" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J50" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K50" s="49"/>
       <c r="L50" s="49"/>
@@ -7470,7 +7462,7 @@
         <v>2</v>
       </c>
       <c r="Q50" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R50" s="48"/>
       <c r="S50" s="48"/>
@@ -7483,16 +7475,16 @@
       <c r="Z50" s="48"/>
       <c r="AA50" s="48"/>
       <c r="AB50" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC50" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD50" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE50" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF50" s="48"/>
       <c r="AG50" s="48"/>
@@ -7522,20 +7514,20 @@
         <v>50</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D51" s="47"/>
       <c r="E51" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F51" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G51" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I51" s="48"/>
       <c r="J51" s="48"/>
@@ -7588,26 +7580,26 @@
         <v>51</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D52" s="47"/>
       <c r="E52" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F52" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G52" s="48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H52" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I52" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J52" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K52" s="49"/>
       <c r="L52" s="49"/>
@@ -7618,7 +7610,7 @@
         <v>3</v>
       </c>
       <c r="Q52" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R52" s="48"/>
       <c r="S52" s="48"/>
@@ -7631,16 +7623,16 @@
       <c r="Z52" s="48"/>
       <c r="AA52" s="48"/>
       <c r="AB52" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC52" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD52" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE52" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF52" s="48"/>
       <c r="AG52" s="48"/>
@@ -7670,20 +7662,20 @@
         <v>52</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D53" s="47"/>
       <c r="E53" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F53" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G53" s="48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H53" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I53" s="48"/>
       <c r="J53" s="48"/>
@@ -7691,10 +7683,10 @@
       <c r="L53" s="49"/>
       <c r="M53" s="48"/>
       <c r="N53" s="48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O53" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P53" s="48"/>
       <c r="Q53" s="48"/>
@@ -7740,20 +7732,20 @@
         <v>53</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D54" s="47"/>
       <c r="E54" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F54" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G54" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H54" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I54" s="48"/>
       <c r="J54" s="48"/>
@@ -7806,20 +7798,20 @@
         <v>54</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D55" s="47"/>
       <c r="E55" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F55" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G55" s="48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H55" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I55" s="48"/>
       <c r="J55" s="48"/>
@@ -7841,10 +7833,10 @@
       <c r="Z55" s="48"/>
       <c r="AA55" s="48"/>
       <c r="AB55" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC55" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD55" s="48"/>
       <c r="AE55" s="48"/>
@@ -7876,20 +7868,20 @@
         <v>55</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56" s="47"/>
       <c r="E56" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F56" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G56" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H56" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I56" s="48"/>
       <c r="J56" s="48"/>
@@ -7942,20 +7934,20 @@
         <v>56</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D57" s="47"/>
       <c r="E57" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F57" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G57" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H57" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I57" s="48"/>
       <c r="J57" s="48"/>
@@ -8012,16 +8004,16 @@
       </c>
       <c r="D58" s="47"/>
       <c r="E58" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F58" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G58" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H58" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I58" s="48"/>
       <c r="J58" s="48"/>
@@ -8078,25 +8070,25 @@
       </c>
       <c r="D59" s="47"/>
       <c r="E59" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F59" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G59" s="48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H59" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I59" s="48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J59" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K59" s="49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L59" s="49"/>
       <c r="M59" s="48"/>
@@ -8106,7 +8098,7 @@
         <v>3</v>
       </c>
       <c r="Q59" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R59" s="48"/>
       <c r="S59" s="48"/>
@@ -8119,22 +8111,22 @@
       <c r="Z59" s="48"/>
       <c r="AA59" s="48"/>
       <c r="AB59" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC59" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD59" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE59" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF59" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG59" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH59" s="48"/>
       <c r="AI59" s="48"/>
@@ -8166,31 +8158,31 @@
       </c>
       <c r="D60" s="47"/>
       <c r="E60" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F60" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G60" s="48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H60" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I60" s="48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J60" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K60" s="48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L60" s="48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M60" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N60" s="48"/>
       <c r="O60" s="48"/>
@@ -8198,7 +8190,7 @@
         <v>6</v>
       </c>
       <c r="Q60" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R60" s="48"/>
       <c r="S60" s="48"/>
@@ -8211,16 +8203,16 @@
       <c r="Z60" s="48"/>
       <c r="AA60" s="48"/>
       <c r="AB60" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC60" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD60" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE60" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF60" s="48"/>
       <c r="AG60" s="48"/>
@@ -8250,35 +8242,35 @@
         <v>60</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D61" s="47"/>
       <c r="E61" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F61" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G61" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H61" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I61" s="52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J61" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K61" s="49"/>
       <c r="L61" s="49"/>
       <c r="M61" s="48"/>
       <c r="N61" s="52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O61" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P61" s="48"/>
       <c r="Q61" s="48"/>
@@ -8303,10 +8295,10 @@
       <c r="AJ61" s="48"/>
       <c r="AK61" s="48"/>
       <c r="AL61" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM61" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN61" s="48"/>
       <c r="AO61" s="48"/>
@@ -8328,20 +8320,20 @@
         <v>61</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D62" s="47"/>
       <c r="E62" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F62" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G62" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H62" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I62" s="48"/>
       <c r="J62" s="48"/>
@@ -8398,31 +8390,31 @@
       </c>
       <c r="D63" s="47"/>
       <c r="E63" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F63" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G63" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H63" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I63" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J63" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K63" s="49"/>
       <c r="L63" s="49"/>
       <c r="M63" s="48"/>
       <c r="N63" s="53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O63" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P63" s="48"/>
       <c r="Q63" s="48"/>
@@ -8468,20 +8460,20 @@
         <v>63</v>
       </c>
       <c r="C64" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D64" s="47"/>
       <c r="E64" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F64" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G64" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H64" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I64" s="48"/>
       <c r="J64" s="48"/>
@@ -8489,10 +8481,10 @@
       <c r="L64" s="49"/>
       <c r="M64" s="48"/>
       <c r="N64" s="53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O64" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P64" s="48"/>
       <c r="Q64" s="48"/>
@@ -8538,20 +8530,20 @@
         <v>64</v>
       </c>
       <c r="C65" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D65" s="47"/>
       <c r="E65" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F65" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G65" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H65" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I65" s="48"/>
       <c r="J65" s="48"/>
@@ -8604,20 +8596,20 @@
         <v>65</v>
       </c>
       <c r="C66" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D66" s="47"/>
       <c r="E66" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F66" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G66" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H66" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I66" s="48"/>
       <c r="J66" s="48"/>
@@ -8670,20 +8662,20 @@
         <v>66</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D67" s="47"/>
       <c r="E67" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G67" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H67" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I67" s="48"/>
       <c r="J67" s="48"/>
@@ -8736,20 +8728,20 @@
         <v>67</v>
       </c>
       <c r="C68" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D68" s="47"/>
       <c r="E68" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F68" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G68" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H68" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I68" s="48"/>
       <c r="J68" s="48"/>
@@ -8806,16 +8798,16 @@
       </c>
       <c r="D69" s="47"/>
       <c r="E69" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F69" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G69" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H69" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I69" s="48"/>
       <c r="J69" s="48"/>
@@ -8868,20 +8860,20 @@
         <v>69</v>
       </c>
       <c r="C70" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D70" s="47"/>
       <c r="E70" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F70" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G70" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H70" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I70" s="48"/>
       <c r="J70" s="48"/>
@@ -8934,20 +8926,20 @@
         <v>70</v>
       </c>
       <c r="C71" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D71" s="47"/>
       <c r="E71" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F71" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G71" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H71" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I71" s="48"/>
       <c r="J71" s="48"/>
@@ -9000,20 +8992,20 @@
         <v>71</v>
       </c>
       <c r="C72" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D72" s="47"/>
       <c r="E72" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F72" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G72" s="48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H72" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I72" s="48"/>
       <c r="J72" s="48"/>
@@ -9066,20 +9058,20 @@
         <v>72</v>
       </c>
       <c r="C73" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D73" s="47"/>
       <c r="E73" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F73" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G73" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H73" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I73" s="48"/>
       <c r="J73" s="48"/>
@@ -9136,16 +9128,16 @@
       </c>
       <c r="D74" s="47"/>
       <c r="E74" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F74" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G74" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H74" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I74" s="48"/>
       <c r="J74" s="48"/>
@@ -9198,20 +9190,20 @@
         <v>74</v>
       </c>
       <c r="C75" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D75" s="47"/>
       <c r="E75" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F75" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G75" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H75" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I75" s="48"/>
       <c r="J75" s="48"/>
@@ -9264,20 +9256,20 @@
         <v>75</v>
       </c>
       <c r="C76" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D76" s="47"/>
       <c r="E76" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F76" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G76" s="48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H76" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I76" s="48"/>
       <c r="J76" s="48"/>
@@ -9285,10 +9277,10 @@
       <c r="L76" s="49"/>
       <c r="M76" s="48"/>
       <c r="N76" s="52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O76" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P76" s="48"/>
       <c r="Q76" s="48"/>
@@ -9313,10 +9305,10 @@
       <c r="AJ76" s="48"/>
       <c r="AK76" s="48"/>
       <c r="AL76" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM76" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN76" s="48"/>
       <c r="AO76" s="48"/>
@@ -9338,20 +9330,20 @@
         <v>76</v>
       </c>
       <c r="C77" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D77" s="47"/>
       <c r="E77" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F77" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G77" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H77" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I77" s="48"/>
       <c r="J77" s="48"/>
@@ -9359,10 +9351,10 @@
       <c r="L77" s="49"/>
       <c r="M77" s="48"/>
       <c r="N77" s="53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O77" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P77" s="48"/>
       <c r="Q77" s="48"/>
@@ -9377,10 +9369,10 @@
       <c r="Z77" s="48"/>
       <c r="AA77" s="48"/>
       <c r="AB77" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC77" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD77" s="48"/>
       <c r="AE77" s="48"/>
@@ -9416,16 +9408,16 @@
       </c>
       <c r="D78" s="47"/>
       <c r="E78" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F78" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G78" s="48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H78" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I78" s="48"/>
       <c r="J78" s="48"/>
@@ -9433,10 +9425,10 @@
       <c r="L78" s="49"/>
       <c r="M78" s="48"/>
       <c r="N78" s="52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O78" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P78" s="48"/>
       <c r="Q78" s="48"/>
@@ -9486,16 +9478,16 @@
       </c>
       <c r="D79" s="47"/>
       <c r="E79" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F79" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G79" s="48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H79" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I79" s="48"/>
       <c r="J79" s="48"/>
@@ -9552,22 +9544,22 @@
       </c>
       <c r="D80" s="47"/>
       <c r="E80" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F80" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G80" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H80" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I80" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J80" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K80" s="49"/>
       <c r="L80" s="49"/>
@@ -9622,16 +9614,16 @@
       </c>
       <c r="D81" s="47"/>
       <c r="E81" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F81" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G81" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H81" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I81" s="48"/>
       <c r="J81" s="48"/>
@@ -9688,16 +9680,16 @@
       </c>
       <c r="D82" s="47"/>
       <c r="E82" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F82" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G82" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H82" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I82" s="48"/>
       <c r="J82" s="48"/>
@@ -9705,10 +9697,10 @@
       <c r="L82" s="49"/>
       <c r="M82" s="48"/>
       <c r="N82" s="53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O82" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P82" s="48"/>
       <c r="Q82" s="48"/>
@@ -9723,10 +9715,10 @@
       <c r="Z82" s="48"/>
       <c r="AA82" s="48"/>
       <c r="AB82" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC82" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD82" s="48"/>
       <c r="AE82" s="48"/>
@@ -9758,20 +9750,20 @@
         <v>87</v>
       </c>
       <c r="C83" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D83" s="47"/>
       <c r="E83" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F83" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G83" s="48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H83" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I83" s="48"/>
       <c r="J83" s="48"/>
@@ -9828,22 +9820,22 @@
       </c>
       <c r="D84" s="47"/>
       <c r="E84" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F84" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G84" s="48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H84" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I84" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J84" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K84" s="49"/>
       <c r="L84" s="49"/>
@@ -9894,20 +9886,20 @@
         <v>89</v>
       </c>
       <c r="C85" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D85" s="47"/>
       <c r="E85" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F85" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G85" s="48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H85" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I85" s="48"/>
       <c r="J85" s="48"/>
@@ -9960,35 +9952,35 @@
         <v>102</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D86" s="47"/>
       <c r="E86" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F86" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G86" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H86" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I86" s="52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J86" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K86" s="49"/>
       <c r="L86" s="49"/>
       <c r="M86" s="48"/>
       <c r="N86" s="52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O86" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P86" s="48"/>
       <c r="Q86" s="48"/>
@@ -10003,10 +9995,10 @@
       <c r="Z86" s="48"/>
       <c r="AA86" s="48"/>
       <c r="AB86" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC86" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD86" s="48"/>
       <c r="AE86" s="48"/>
@@ -10017,10 +10009,10 @@
       <c r="AJ86" s="48"/>
       <c r="AK86" s="48"/>
       <c r="AL86" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM86" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN86" s="48"/>
       <c r="AO86" s="48"/>
@@ -10042,35 +10034,35 @@
         <v>103</v>
       </c>
       <c r="C87" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D87" s="47"/>
       <c r="E87" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F87" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G87" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H87" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I87" s="52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J87" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K87" s="49"/>
       <c r="L87" s="49"/>
       <c r="M87" s="48"/>
       <c r="N87" s="52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O87" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P87" s="48"/>
       <c r="Q87" s="48"/>
@@ -10095,10 +10087,10 @@
       <c r="AJ87" s="48"/>
       <c r="AK87" s="48"/>
       <c r="AL87" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM87" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN87" s="48"/>
       <c r="AO87" s="48"/>
@@ -10120,20 +10112,20 @@
         <v>104</v>
       </c>
       <c r="C88" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D88" s="47"/>
       <c r="E88" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F88" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G88" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H88" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I88" s="48"/>
       <c r="J88" s="48"/>
@@ -10186,20 +10178,20 @@
         <v>105</v>
       </c>
       <c r="C89" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D89" s="47"/>
       <c r="E89" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F89" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G89" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H89" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I89" s="48"/>
       <c r="J89" s="48"/>
@@ -10252,20 +10244,20 @@
         <v>106</v>
       </c>
       <c r="C90" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D90" s="47"/>
       <c r="E90" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F90" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G90" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H90" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I90" s="48"/>
       <c r="J90" s="48"/>
@@ -10273,10 +10265,10 @@
       <c r="L90" s="49"/>
       <c r="M90" s="48"/>
       <c r="N90" s="53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O90" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P90" s="48"/>
       <c r="Q90" s="48"/>
@@ -10291,10 +10283,10 @@
       <c r="Z90" s="48"/>
       <c r="AA90" s="48"/>
       <c r="AB90" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC90" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD90" s="48"/>
       <c r="AE90" s="48"/>
@@ -10326,20 +10318,20 @@
         <v>107</v>
       </c>
       <c r="C91" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D91" s="47"/>
       <c r="E91" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F91" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G91" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H91" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I91" s="48"/>
       <c r="J91" s="48"/>
@@ -10392,20 +10384,20 @@
         <v>108</v>
       </c>
       <c r="C92" s="52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D92" s="47"/>
       <c r="E92" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F92" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G92" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H92" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I92" s="48"/>
       <c r="J92" s="48"/>
@@ -10458,20 +10450,20 @@
         <v>111</v>
       </c>
       <c r="C93" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D93" s="47"/>
       <c r="E93" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F93" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G93" s="48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H93" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I93" s="48"/>
       <c r="J93" s="48"/>
@@ -10524,35 +10516,35 @@
         <v>116</v>
       </c>
       <c r="C94" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F94" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G94" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H94" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I94" s="52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J94" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K94" s="49"/>
       <c r="L94" s="49"/>
       <c r="M94" s="48"/>
       <c r="N94" s="52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O94" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P94" s="48"/>
       <c r="Q94" s="48"/>
@@ -10567,10 +10559,10 @@
       <c r="Z94" s="48"/>
       <c r="AA94" s="48"/>
       <c r="AB94" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC94" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD94" s="48"/>
       <c r="AE94" s="48"/>
@@ -10602,35 +10594,35 @@
         <v>117</v>
       </c>
       <c r="C95" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D95" s="47"/>
       <c r="E95" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F95" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G95" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H95" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I95" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J95" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K95" s="49"/>
       <c r="L95" s="49"/>
       <c r="M95" s="48"/>
       <c r="N95" s="53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O95" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P95" s="48"/>
       <c r="Q95" s="48"/>
@@ -10655,10 +10647,10 @@
       <c r="AJ95" s="48"/>
       <c r="AK95" s="48"/>
       <c r="AL95" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM95" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN95" s="48"/>
       <c r="AO95" s="48"/>
@@ -10684,16 +10676,16 @@
       </c>
       <c r="D96" s="47"/>
       <c r="E96" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F96" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G96" s="48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H96" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I96" s="48"/>
       <c r="J96" s="48"/>
@@ -10750,45 +10742,45 @@
       </c>
       <c r="D97" s="47"/>
       <c r="E97" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F97" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G97" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H97" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I97" s="52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J97" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K97" s="49"/>
       <c r="L97" s="49"/>
       <c r="M97" s="48"/>
       <c r="N97" s="52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O97" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P97" s="48"/>
       <c r="Q97" s="48"/>
       <c r="R97" s="48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S97" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T97" s="48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U97" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V97" s="48"/>
       <c r="W97" s="48"/>
@@ -10803,18 +10795,18 @@
       <c r="AF97" s="48"/>
       <c r="AG97" s="48"/>
       <c r="AH97" s="48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI97" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ97" s="48"/>
       <c r="AK97" s="48"/>
       <c r="AL97" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM97" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN97" s="48"/>
       <c r="AO97" s="48"/>
@@ -10836,26 +10828,26 @@
         <v>120</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D98" s="47"/>
       <c r="E98" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F98" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G98" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H98" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I98" s="48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J98" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K98" s="49"/>
       <c r="L98" s="49"/>
@@ -10866,7 +10858,7 @@
         <v>1</v>
       </c>
       <c r="Q98" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R98" s="48"/>
       <c r="S98" s="48"/>
@@ -10879,10 +10871,10 @@
       <c r="Z98" s="48"/>
       <c r="AA98" s="48"/>
       <c r="AB98" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC98" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD98" s="48"/>
       <c r="AE98" s="48"/>
@@ -10914,20 +10906,20 @@
         <v>121</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D99" s="47"/>
       <c r="E99" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F99" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G99" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H99" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I99" s="48"/>
       <c r="J99" s="48"/>
@@ -10984,39 +10976,39 @@
       </c>
       <c r="D100" s="47"/>
       <c r="E100" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F100" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G100" s="48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H100" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I100" s="52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J100" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K100" s="49"/>
       <c r="L100" s="49"/>
       <c r="M100" s="48"/>
       <c r="N100" s="52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O100" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P100" s="48"/>
       <c r="Q100" s="48"/>
       <c r="R100" s="48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S100" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T100" s="48"/>
       <c r="U100" s="48"/>
@@ -11037,10 +11029,10 @@
       <c r="AJ100" s="48"/>
       <c r="AK100" s="48"/>
       <c r="AL100" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM100" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN100" s="48"/>
       <c r="AO100" s="48"/>
@@ -11066,31 +11058,31 @@
       </c>
       <c r="D101" s="47"/>
       <c r="E101" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F101" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G101" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H101" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I101" s="52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J101" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K101" s="49"/>
       <c r="L101" s="49"/>
       <c r="M101" s="48"/>
       <c r="N101" s="52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O101" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P101" s="48"/>
       <c r="Q101" s="48"/>
@@ -11115,10 +11107,10 @@
       <c r="AJ101" s="48"/>
       <c r="AK101" s="48"/>
       <c r="AL101" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM101" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN101" s="48"/>
       <c r="AO101" s="48"/>
@@ -11144,16 +11136,16 @@
       </c>
       <c r="D102" s="47"/>
       <c r="E102" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F102" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G102" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H102" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I102" s="48"/>
       <c r="J102" s="48"/>
@@ -11161,10 +11153,10 @@
       <c r="L102" s="49"/>
       <c r="M102" s="48"/>
       <c r="N102" s="53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O102" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P102" s="48"/>
       <c r="Q102" s="48"/>
@@ -11179,10 +11171,10 @@
       <c r="Z102" s="48"/>
       <c r="AA102" s="48"/>
       <c r="AB102" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC102" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD102" s="48"/>
       <c r="AE102" s="48"/>
@@ -11193,10 +11185,10 @@
       <c r="AJ102" s="48"/>
       <c r="AK102" s="48"/>
       <c r="AL102" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM102" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN102" s="48"/>
       <c r="AO102" s="48"/>
@@ -11222,16 +11214,16 @@
       </c>
       <c r="D103" s="47"/>
       <c r="E103" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F103" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G103" s="48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H103" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I103" s="48"/>
       <c r="J103" s="48"/>
@@ -11253,10 +11245,10 @@
       <c r="Z103" s="48"/>
       <c r="AA103" s="48"/>
       <c r="AB103" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC103" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD103" s="48"/>
       <c r="AE103" s="48"/>
@@ -11267,10 +11259,10 @@
       <c r="AJ103" s="48"/>
       <c r="AK103" s="48"/>
       <c r="AL103" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM103" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN103" s="48"/>
       <c r="AO103" s="48"/>
@@ -11296,16 +11288,16 @@
       </c>
       <c r="D104" s="47"/>
       <c r="E104" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F104" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G104" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H104" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I104" s="48"/>
       <c r="J104" s="48"/>
@@ -11313,18 +11305,18 @@
       <c r="L104" s="49"/>
       <c r="M104" s="48"/>
       <c r="N104" s="48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O104" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P104" s="48"/>
       <c r="Q104" s="48"/>
       <c r="R104" s="48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S104" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T104" s="48"/>
       <c r="U104" s="48"/>
@@ -11345,17 +11337,17 @@
       <c r="AJ104" s="48"/>
       <c r="AK104" s="48"/>
       <c r="AL104" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM104" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN104" s="48"/>
       <c r="AO104" s="48"/>
       <c r="AP104" s="48"/>
       <c r="AQ104" s="55"/>
       <c r="AR104" s="56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS104" s="13"/>
       <c r="AT104" s="13"/>
@@ -11376,39 +11368,39 @@
       </c>
       <c r="D105" s="47"/>
       <c r="E105" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F105" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G105" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H105" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I105" s="48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J105" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K105" s="49"/>
       <c r="L105" s="49"/>
       <c r="M105" s="48"/>
       <c r="N105" s="52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O105" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P105" s="48"/>
       <c r="Q105" s="48"/>
       <c r="R105" s="48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S105" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T105" s="48"/>
       <c r="U105" s="48"/>
@@ -11429,10 +11421,10 @@
       <c r="AJ105" s="48"/>
       <c r="AK105" s="48"/>
       <c r="AL105" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM105" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN105" s="48"/>
       <c r="AO105" s="48"/>
@@ -11458,16 +11450,16 @@
       </c>
       <c r="D106" s="47"/>
       <c r="E106" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F106" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G106" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H106" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I106" s="48"/>
       <c r="J106" s="48"/>
@@ -11499,10 +11491,10 @@
       <c r="AJ106" s="48"/>
       <c r="AK106" s="48"/>
       <c r="AL106" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM106" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN106" s="48"/>
       <c r="AO106" s="48"/>
@@ -11528,16 +11520,16 @@
       </c>
       <c r="D107" s="47"/>
       <c r="E107" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F107" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G107" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H107" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I107" s="48"/>
       <c r="J107" s="48"/>
@@ -11559,22 +11551,22 @@
       <c r="Z107" s="48"/>
       <c r="AA107" s="48"/>
       <c r="AB107" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC107" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD107" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE107" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF107" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG107" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH107" s="48"/>
       <c r="AI107" s="48"/>
@@ -11606,16 +11598,16 @@
       </c>
       <c r="D108" s="47"/>
       <c r="E108" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F108" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G108" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H108" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I108" s="48"/>
       <c r="J108" s="48"/>
@@ -11647,10 +11639,10 @@
       <c r="AJ108" s="48"/>
       <c r="AK108" s="48"/>
       <c r="AL108" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM108" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN108" s="48"/>
       <c r="AO108" s="48"/>
@@ -11676,16 +11668,16 @@
       </c>
       <c r="D109" s="47"/>
       <c r="E109" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F109" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G109" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H109" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I109" s="48"/>
       <c r="J109" s="48"/>
@@ -11742,16 +11734,16 @@
       </c>
       <c r="D110" s="47"/>
       <c r="E110" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F110" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G110" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H110" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I110" s="48"/>
       <c r="J110" s="48"/>
@@ -11783,10 +11775,10 @@
       <c r="AJ110" s="48"/>
       <c r="AK110" s="48"/>
       <c r="AL110" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM110" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN110" s="48"/>
       <c r="AO110" s="48"/>
@@ -11812,16 +11804,16 @@
       </c>
       <c r="D111" s="47"/>
       <c r="E111" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F111" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G111" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H111" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I111" s="48"/>
       <c r="J111" s="48"/>
@@ -11878,16 +11870,16 @@
       </c>
       <c r="D112" s="47"/>
       <c r="E112" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F112" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G112" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H112" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I112" s="48"/>
       <c r="J112" s="48"/>
@@ -11895,10 +11887,10 @@
       <c r="L112" s="49"/>
       <c r="M112" s="48"/>
       <c r="N112" s="48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O112" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P112" s="48"/>
       <c r="Q112" s="48"/>
@@ -11948,16 +11940,16 @@
       </c>
       <c r="D113" s="47"/>
       <c r="E113" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F113" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G113" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H113" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I113" s="48"/>
       <c r="J113" s="48"/>
@@ -11979,10 +11971,10 @@
       <c r="Z113" s="48"/>
       <c r="AA113" s="48"/>
       <c r="AB113" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC113" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD113" s="48"/>
       <c r="AE113" s="48"/>
@@ -12018,16 +12010,16 @@
       </c>
       <c r="D114" s="47"/>
       <c r="E114" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F114" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G114" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H114" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I114" s="48"/>
       <c r="J114" s="48"/>
@@ -12049,10 +12041,10 @@
       <c r="Z114" s="48"/>
       <c r="AA114" s="48"/>
       <c r="AB114" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC114" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD114" s="48"/>
       <c r="AE114" s="48"/>
@@ -12063,10 +12055,10 @@
       <c r="AJ114" s="48"/>
       <c r="AK114" s="48"/>
       <c r="AL114" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM114" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN114" s="48"/>
       <c r="AO114" s="48"/>
@@ -12092,16 +12084,16 @@
       </c>
       <c r="D115" s="47"/>
       <c r="E115" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F115" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G115" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H115" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I115" s="48"/>
       <c r="J115" s="48"/>
@@ -12123,10 +12115,10 @@
       <c r="Z115" s="48"/>
       <c r="AA115" s="48"/>
       <c r="AB115" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC115" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD115" s="48"/>
       <c r="AE115" s="48"/>
@@ -12162,16 +12154,16 @@
       </c>
       <c r="D116" s="47"/>
       <c r="E116" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F116" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G116" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H116" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I116" s="48"/>
       <c r="J116" s="48"/>
@@ -12193,10 +12185,10 @@
       <c r="Z116" s="48"/>
       <c r="AA116" s="48"/>
       <c r="AB116" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC116" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD116" s="48"/>
       <c r="AE116" s="48"/>
@@ -12207,10 +12199,10 @@
       <c r="AJ116" s="48"/>
       <c r="AK116" s="48"/>
       <c r="AL116" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM116" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN116" s="48"/>
       <c r="AO116" s="48"/>
@@ -12236,16 +12228,16 @@
       </c>
       <c r="D117" s="47"/>
       <c r="E117" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F117" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G117" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H117" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I117" s="48"/>
       <c r="J117" s="48"/>
@@ -12302,16 +12294,16 @@
       </c>
       <c r="D118" s="47"/>
       <c r="E118" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F118" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G118" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H118" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I118" s="48"/>
       <c r="J118" s="48"/>
@@ -12343,10 +12335,10 @@
       <c r="AJ118" s="48"/>
       <c r="AK118" s="48"/>
       <c r="AL118" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM118" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN118" s="48"/>
       <c r="AO118" s="48"/>
@@ -12372,16 +12364,16 @@
       </c>
       <c r="D119" s="47"/>
       <c r="E119" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F119" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G119" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H119" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I119" s="48"/>
       <c r="J119" s="48"/>
@@ -12403,10 +12395,10 @@
       <c r="Z119" s="48"/>
       <c r="AA119" s="48"/>
       <c r="AB119" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC119" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD119" s="48"/>
       <c r="AE119" s="48"/>
@@ -12442,16 +12434,16 @@
       </c>
       <c r="D120" s="47"/>
       <c r="E120" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F120" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G120" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H120" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I120" s="48"/>
       <c r="J120" s="48"/>
@@ -12483,10 +12475,10 @@
       <c r="AJ120" s="48"/>
       <c r="AK120" s="48"/>
       <c r="AL120" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM120" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN120" s="48"/>
       <c r="AO120" s="48"/>
@@ -12512,16 +12504,16 @@
       </c>
       <c r="D121" s="47"/>
       <c r="E121" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F121" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G121" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H121" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I121" s="48"/>
       <c r="J121" s="48"/>
@@ -12578,16 +12570,16 @@
       </c>
       <c r="D122" s="47"/>
       <c r="E122" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F122" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G122" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H122" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I122" s="48"/>
       <c r="J122" s="48"/>
@@ -12595,10 +12587,10 @@
       <c r="L122" s="49"/>
       <c r="M122" s="48"/>
       <c r="N122" s="48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O122" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P122" s="48"/>
       <c r="Q122" s="48"/>
@@ -12613,16 +12605,16 @@
       <c r="Z122" s="48"/>
       <c r="AA122" s="48"/>
       <c r="AB122" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC122" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD122" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE122" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF122" s="48"/>
       <c r="AG122" s="48"/>
@@ -12656,16 +12648,16 @@
       </c>
       <c r="D123" s="47"/>
       <c r="E123" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F123" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G123" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H123" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I123" s="48"/>
       <c r="J123" s="48"/>
@@ -12687,10 +12679,10 @@
       <c r="Z123" s="48"/>
       <c r="AA123" s="48"/>
       <c r="AB123" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC123" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD123" s="48"/>
       <c r="AE123" s="48"/>
@@ -12726,16 +12718,16 @@
       </c>
       <c r="D124" s="47"/>
       <c r="E124" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F124" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G124" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H124" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I124" s="48"/>
       <c r="J124" s="48"/>
@@ -12757,10 +12749,10 @@
       <c r="Z124" s="48"/>
       <c r="AA124" s="48"/>
       <c r="AB124" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC124" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD124" s="48"/>
       <c r="AE124" s="48"/>
@@ -12771,10 +12763,10 @@
       <c r="AJ124" s="48"/>
       <c r="AK124" s="48"/>
       <c r="AL124" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM124" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN124" s="48"/>
       <c r="AO124" s="48"/>
@@ -12800,16 +12792,16 @@
       </c>
       <c r="D125" s="47"/>
       <c r="E125" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F125" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G125" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H125" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I125" s="48"/>
       <c r="J125" s="48"/>
@@ -12831,10 +12823,10 @@
       <c r="Z125" s="48"/>
       <c r="AA125" s="48"/>
       <c r="AB125" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC125" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD125" s="48"/>
       <c r="AE125" s="48"/>
@@ -12870,16 +12862,16 @@
       </c>
       <c r="D126" s="47"/>
       <c r="E126" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F126" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G126" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H126" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I126" s="48"/>
       <c r="J126" s="48"/>
@@ -12901,16 +12893,16 @@
       <c r="Z126" s="48"/>
       <c r="AA126" s="48"/>
       <c r="AB126" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC126" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD126" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE126" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF126" s="48"/>
       <c r="AG126" s="48"/>
@@ -12919,10 +12911,10 @@
       <c r="AJ126" s="48"/>
       <c r="AK126" s="48"/>
       <c r="AL126" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM126" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN126" s="48"/>
       <c r="AO126" s="48"/>
@@ -12948,16 +12940,16 @@
       </c>
       <c r="D127" s="47"/>
       <c r="E127" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F127" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G127" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H127" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I127" s="48"/>
       <c r="J127" s="48"/>
@@ -13014,16 +13006,16 @@
       </c>
       <c r="D128" s="47"/>
       <c r="E128" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F128" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G128" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H128" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I128" s="48"/>
       <c r="J128" s="48"/>
@@ -13031,10 +13023,10 @@
       <c r="L128" s="49"/>
       <c r="M128" s="48"/>
       <c r="N128" s="48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O128" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P128" s="48"/>
       <c r="Q128" s="48"/>
@@ -13084,16 +13076,16 @@
       </c>
       <c r="D129" s="47"/>
       <c r="E129" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F129" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G129" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H129" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I129" s="48"/>
       <c r="J129" s="48"/>
@@ -13115,10 +13107,10 @@
       <c r="Z129" s="48"/>
       <c r="AA129" s="48"/>
       <c r="AB129" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC129" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD129" s="48"/>
       <c r="AE129" s="48"/>
@@ -13154,16 +13146,16 @@
       </c>
       <c r="D130" s="47"/>
       <c r="E130" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F130" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G130" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H130" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I130" s="48"/>
       <c r="J130" s="48"/>
@@ -13185,10 +13177,10 @@
       <c r="Z130" s="48"/>
       <c r="AA130" s="48"/>
       <c r="AB130" s="48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC130" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD130" s="48"/>
       <c r="AE130" s="48"/>
@@ -13199,10 +13191,10 @@
       <c r="AJ130" s="48"/>
       <c r="AK130" s="48"/>
       <c r="AL130" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM130" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN130" s="48"/>
       <c r="AO130" s="48"/>
@@ -13228,16 +13220,16 @@
       </c>
       <c r="D131" s="47"/>
       <c r="E131" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F131" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G131" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H131" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I131" s="48"/>
       <c r="J131" s="48"/>
@@ -13259,10 +13251,10 @@
       <c r="Z131" s="48"/>
       <c r="AA131" s="48"/>
       <c r="AB131" s="48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC131" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD131" s="48"/>
       <c r="AE131" s="48"/>
@@ -13298,16 +13290,16 @@
       </c>
       <c r="D132" s="47"/>
       <c r="E132" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F132" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G132" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H132" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I132" s="48"/>
       <c r="J132" s="48"/>
@@ -13329,10 +13321,10 @@
       <c r="Z132" s="48"/>
       <c r="AA132" s="48"/>
       <c r="AB132" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC132" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD132" s="48"/>
       <c r="AE132" s="48"/>
@@ -13343,10 +13335,10 @@
       <c r="AJ132" s="48"/>
       <c r="AK132" s="48"/>
       <c r="AL132" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM132" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN132" s="48"/>
       <c r="AO132" s="48"/>
@@ -13372,16 +13364,16 @@
       </c>
       <c r="D133" s="47"/>
       <c r="E133" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F133" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G133" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H133" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I133" s="48"/>
       <c r="J133" s="48"/>
@@ -13438,16 +13430,16 @@
       </c>
       <c r="D134" s="47"/>
       <c r="E134" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F134" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G134" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H134" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I134" s="48"/>
       <c r="J134" s="48"/>
@@ -13469,10 +13461,10 @@
       <c r="Z134" s="48"/>
       <c r="AA134" s="48"/>
       <c r="AB134" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC134" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD134" s="48"/>
       <c r="AE134" s="48"/>
@@ -13508,16 +13500,16 @@
       </c>
       <c r="D135" s="47"/>
       <c r="E135" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F135" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G135" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H135" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I135" s="48"/>
       <c r="J135" s="48"/>
@@ -13539,10 +13531,10 @@
       <c r="Z135" s="48"/>
       <c r="AA135" s="48"/>
       <c r="AB135" s="48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC135" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD135" s="48"/>
       <c r="AE135" s="48"/>
@@ -13553,10 +13545,10 @@
       <c r="AJ135" s="48"/>
       <c r="AK135" s="48"/>
       <c r="AL135" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM135" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN135" s="48"/>
       <c r="AO135" s="48"/>
@@ -13582,16 +13574,16 @@
       </c>
       <c r="D136" s="47"/>
       <c r="E136" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F136" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G136" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H136" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I136" s="48"/>
       <c r="J136" s="48"/>
@@ -13599,10 +13591,10 @@
       <c r="L136" s="49"/>
       <c r="M136" s="48"/>
       <c r="N136" s="48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O136" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P136" s="48"/>
       <c r="Q136" s="48"/>
@@ -13652,16 +13644,16 @@
       </c>
       <c r="D137" s="47"/>
       <c r="E137" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F137" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G137" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H137" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I137" s="48"/>
       <c r="J137" s="48"/>
@@ -13683,10 +13675,10 @@
       <c r="Z137" s="48"/>
       <c r="AA137" s="48"/>
       <c r="AB137" s="48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC137" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD137" s="48"/>
       <c r="AE137" s="48"/>
@@ -13697,10 +13689,10 @@
       <c r="AJ137" s="48"/>
       <c r="AK137" s="48"/>
       <c r="AL137" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM137" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN137" s="48"/>
       <c r="AO137" s="48"/>
@@ -13726,16 +13718,16 @@
       </c>
       <c r="D138" s="47"/>
       <c r="E138" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F138" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G138" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H138" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I138" s="48"/>
       <c r="J138" s="52"/>
@@ -13757,10 +13749,10 @@
       <c r="Z138" s="48"/>
       <c r="AA138" s="48"/>
       <c r="AB138" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC138" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD138" s="48"/>
       <c r="AE138" s="48"/>
@@ -13796,16 +13788,16 @@
       </c>
       <c r="D139" s="47"/>
       <c r="E139" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F139" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G139" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H139" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I139" s="48"/>
       <c r="J139" s="48"/>
@@ -13837,10 +13829,10 @@
       <c r="AJ139" s="48"/>
       <c r="AK139" s="48"/>
       <c r="AL139" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM139" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN139" s="48"/>
       <c r="AO139" s="48"/>
@@ -13866,16 +13858,16 @@
       </c>
       <c r="D140" s="47"/>
       <c r="E140" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F140" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G140" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H140" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I140" s="48"/>
       <c r="J140" s="48"/>
@@ -13932,16 +13924,16 @@
       </c>
       <c r="D141" s="47"/>
       <c r="E141" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F141" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G141" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H141" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I141" s="48"/>
       <c r="J141" s="48"/>
@@ -13973,10 +13965,10 @@
       <c r="AJ141" s="48"/>
       <c r="AK141" s="48"/>
       <c r="AL141" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM141" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN141" s="48"/>
       <c r="AO141" s="48"/>
@@ -14002,16 +13994,16 @@
       </c>
       <c r="D142" s="47"/>
       <c r="E142" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F142" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G142" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H142" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I142" s="48"/>
       <c r="J142" s="48"/>
@@ -14033,10 +14025,10 @@
       <c r="Z142" s="48"/>
       <c r="AA142" s="48"/>
       <c r="AB142" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC142" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD142" s="48"/>
       <c r="AE142" s="48"/>
@@ -14072,16 +14064,16 @@
       </c>
       <c r="D143" s="47"/>
       <c r="E143" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F143" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G143" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H143" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I143" s="48"/>
       <c r="J143" s="48"/>
@@ -14113,10 +14105,10 @@
       <c r="AJ143" s="48"/>
       <c r="AK143" s="48"/>
       <c r="AL143" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM143" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN143" s="48"/>
       <c r="AO143" s="48"/>
@@ -14142,16 +14134,16 @@
       </c>
       <c r="D144" s="47"/>
       <c r="E144" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F144" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G144" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H144" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I144" s="48"/>
       <c r="J144" s="48"/>
@@ -14173,10 +14165,10 @@
       <c r="Z144" s="48"/>
       <c r="AA144" s="48"/>
       <c r="AB144" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC144" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD144" s="48"/>
       <c r="AE144" s="48"/>
@@ -14212,16 +14204,16 @@
       </c>
       <c r="D145" s="47"/>
       <c r="E145" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F145" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G145" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H145" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I145" s="48"/>
       <c r="J145" s="48"/>
@@ -14243,10 +14235,10 @@
       <c r="Z145" s="48"/>
       <c r="AA145" s="48"/>
       <c r="AB145" s="48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC145" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD145" s="48"/>
       <c r="AE145" s="48"/>
@@ -14257,10 +14249,10 @@
       <c r="AJ145" s="48"/>
       <c r="AK145" s="48"/>
       <c r="AL145" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM145" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN145" s="48"/>
       <c r="AO145" s="48"/>
@@ -14286,16 +14278,16 @@
       </c>
       <c r="D146" s="47"/>
       <c r="E146" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F146" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G146" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H146" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I146" s="48"/>
       <c r="J146" s="48"/>
@@ -14317,10 +14309,10 @@
       <c r="Z146" s="48"/>
       <c r="AA146" s="48"/>
       <c r="AB146" s="48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC146" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD146" s="48"/>
       <c r="AE146" s="48"/>
@@ -14356,16 +14348,16 @@
       </c>
       <c r="D147" s="47"/>
       <c r="E147" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F147" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G147" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H147" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I147" s="48"/>
       <c r="J147" s="48"/>
@@ -14387,10 +14379,10 @@
       <c r="Z147" s="48"/>
       <c r="AA147" s="48"/>
       <c r="AB147" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC147" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD147" s="48"/>
       <c r="AE147" s="48"/>
@@ -14401,10 +14393,10 @@
       <c r="AJ147" s="48"/>
       <c r="AK147" s="48"/>
       <c r="AL147" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM147" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN147" s="48"/>
       <c r="AO147" s="48"/>
@@ -14430,16 +14422,16 @@
       </c>
       <c r="D148" s="47"/>
       <c r="E148" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F148" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G148" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H148" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I148" s="48"/>
       <c r="J148" s="48"/>
@@ -14461,10 +14453,10 @@
       <c r="Z148" s="48"/>
       <c r="AA148" s="48"/>
       <c r="AB148" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC148" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD148" s="48"/>
       <c r="AE148" s="48"/>
@@ -14500,16 +14492,16 @@
       </c>
       <c r="D149" s="47"/>
       <c r="E149" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F149" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G149" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H149" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I149" s="48"/>
       <c r="J149" s="48"/>
@@ -14531,10 +14523,10 @@
       <c r="Z149" s="48"/>
       <c r="AA149" s="48"/>
       <c r="AB149" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC149" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD149" s="48"/>
       <c r="AE149" s="48"/>
@@ -14545,10 +14537,10 @@
       <c r="AJ149" s="48"/>
       <c r="AK149" s="48"/>
       <c r="AL149" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM149" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN149" s="48"/>
       <c r="AO149" s="48"/>
@@ -14574,16 +14566,16 @@
       </c>
       <c r="D150" s="47"/>
       <c r="E150" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F150" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G150" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H150" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I150" s="48"/>
       <c r="J150" s="48"/>
@@ -14605,10 +14597,10 @@
       <c r="Z150" s="48"/>
       <c r="AA150" s="48"/>
       <c r="AB150" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC150" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD150" s="48"/>
       <c r="AE150" s="48"/>
@@ -14644,16 +14636,16 @@
       </c>
       <c r="D151" s="47"/>
       <c r="E151" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F151" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G151" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H151" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I151" s="48"/>
       <c r="J151" s="48"/>
@@ -14675,16 +14667,16 @@
       <c r="Z151" s="48"/>
       <c r="AA151" s="48"/>
       <c r="AB151" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC151" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD151" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE151" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF151" s="48"/>
       <c r="AG151" s="48"/>
@@ -14693,10 +14685,10 @@
       <c r="AJ151" s="48"/>
       <c r="AK151" s="48"/>
       <c r="AL151" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM151" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN151" s="48"/>
       <c r="AO151" s="48"/>
@@ -14722,16 +14714,16 @@
       </c>
       <c r="D152" s="47"/>
       <c r="E152" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F152" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G152" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H152" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I152" s="48"/>
       <c r="J152" s="48"/>
@@ -14788,16 +14780,16 @@
       </c>
       <c r="D153" s="47"/>
       <c r="E153" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F153" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G153" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H153" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I153" s="48"/>
       <c r="J153" s="48"/>
@@ -14805,10 +14797,10 @@
       <c r="L153" s="49"/>
       <c r="M153" s="48"/>
       <c r="N153" s="48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O153" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P153" s="48"/>
       <c r="Q153" s="48"/>
@@ -14858,16 +14850,16 @@
       </c>
       <c r="D154" s="47"/>
       <c r="E154" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F154" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G154" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H154" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I154" s="48"/>
       <c r="J154" s="48"/>
@@ -14924,16 +14916,16 @@
       </c>
       <c r="D155" s="47"/>
       <c r="E155" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F155" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G155" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H155" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I155" s="48"/>
       <c r="J155" s="48"/>
@@ -14965,10 +14957,10 @@
       <c r="AJ155" s="48"/>
       <c r="AK155" s="48"/>
       <c r="AL155" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM155" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN155" s="48"/>
       <c r="AO155" s="48"/>
@@ -14994,16 +14986,16 @@
       </c>
       <c r="D156" s="47"/>
       <c r="E156" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F156" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G156" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H156" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I156" s="48"/>
       <c r="J156" s="48"/>
@@ -15025,20 +15017,20 @@
       <c r="Z156" s="48"/>
       <c r="AA156" s="48"/>
       <c r="AB156" s="48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC156" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD156" s="48"/>
       <c r="AE156" s="48"/>
       <c r="AF156" s="48"/>
       <c r="AG156" s="48"/>
       <c r="AH156" s="48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI156" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ156" s="48"/>
       <c r="AK156" s="48"/>
@@ -15068,16 +15060,16 @@
       </c>
       <c r="D157" s="47"/>
       <c r="E157" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F157" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G157" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H157" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I157" s="48"/>
       <c r="J157" s="48"/>
@@ -15109,10 +15101,10 @@
       <c r="AJ157" s="48"/>
       <c r="AK157" s="48"/>
       <c r="AL157" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM157" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN157" s="48"/>
       <c r="AO157" s="48"/>
@@ -15138,16 +15130,16 @@
       </c>
       <c r="D158" s="47"/>
       <c r="E158" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F158" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G158" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H158" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I158" s="48"/>
       <c r="J158" s="48"/>
@@ -15204,16 +15196,16 @@
       </c>
       <c r="D159" s="47"/>
       <c r="E159" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F159" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G159" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H159" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I159" s="48"/>
       <c r="J159" s="48"/>
@@ -15245,10 +15237,10 @@
       <c r="AJ159" s="48"/>
       <c r="AK159" s="48"/>
       <c r="AL159" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM159" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN159" s="48"/>
       <c r="AO159" s="48"/>
@@ -15274,22 +15266,22 @@
       </c>
       <c r="D160" s="47"/>
       <c r="E160" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F160" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G160" s="48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H160" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I160" s="48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J160" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K160" s="49"/>
       <c r="L160" s="49"/>
@@ -15344,16 +15336,16 @@
       </c>
       <c r="D161" s="47"/>
       <c r="E161" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F161" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G161" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H161" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I161" s="48"/>
       <c r="J161" s="48"/>
@@ -15375,10 +15367,10 @@
       <c r="Z161" s="48"/>
       <c r="AA161" s="48"/>
       <c r="AB161" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC161" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD161" s="48"/>
       <c r="AE161" s="48"/>
@@ -15414,16 +15406,16 @@
       </c>
       <c r="D162" s="47"/>
       <c r="E162" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F162" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G162" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H162" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I162" s="48"/>
       <c r="J162" s="48"/>
@@ -15480,16 +15472,16 @@
       </c>
       <c r="D163" s="47"/>
       <c r="E163" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F163" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G163" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H163" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I163" s="48"/>
       <c r="J163" s="48"/>
@@ -15511,10 +15503,10 @@
       <c r="Z163" s="48"/>
       <c r="AA163" s="48"/>
       <c r="AB163" s="48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC163" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD163" s="48"/>
       <c r="AE163" s="48"/>
@@ -15525,10 +15517,10 @@
       <c r="AJ163" s="48"/>
       <c r="AK163" s="48"/>
       <c r="AL163" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM163" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN163" s="48"/>
       <c r="AO163" s="48"/>
@@ -15554,16 +15546,16 @@
       </c>
       <c r="D164" s="47"/>
       <c r="E164" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F164" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G164" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H164" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I164" s="48"/>
       <c r="J164" s="48"/>
@@ -15620,16 +15612,16 @@
       </c>
       <c r="D165" s="47"/>
       <c r="E165" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F165" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G165" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H165" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I165" s="48"/>
       <c r="J165" s="48"/>
@@ -15651,10 +15643,10 @@
       <c r="Z165" s="48"/>
       <c r="AA165" s="48"/>
       <c r="AB165" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC165" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD165" s="48"/>
       <c r="AE165" s="48"/>
@@ -15665,10 +15657,10 @@
       <c r="AJ165" s="48"/>
       <c r="AK165" s="48"/>
       <c r="AL165" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM165" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN165" s="48"/>
       <c r="AO165" s="48"/>
@@ -15694,16 +15686,16 @@
       </c>
       <c r="D166" s="47"/>
       <c r="E166" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F166" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G166" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H166" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I166" s="48"/>
       <c r="J166" s="48"/>
@@ -15725,16 +15717,16 @@
       <c r="Z166" s="48"/>
       <c r="AA166" s="48"/>
       <c r="AB166" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC166" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD166" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE166" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF166" s="48"/>
       <c r="AG166" s="48"/>
@@ -15768,16 +15760,16 @@
       </c>
       <c r="D167" s="47"/>
       <c r="E167" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F167" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G167" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H167" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I167" s="48"/>
       <c r="J167" s="48"/>
@@ -15799,28 +15791,28 @@
       <c r="Z167" s="48"/>
       <c r="AA167" s="48"/>
       <c r="AB167" s="48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC167" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD167" s="48"/>
       <c r="AE167" s="48"/>
       <c r="AF167" s="48"/>
       <c r="AG167" s="48"/>
       <c r="AH167" s="48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI167" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ167" s="48"/>
       <c r="AK167" s="48"/>
       <c r="AL167" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM167" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN167" s="48"/>
       <c r="AO167" s="48"/>
@@ -15846,16 +15838,16 @@
       </c>
       <c r="D168" s="47"/>
       <c r="E168" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F168" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G168" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H168" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I168" s="48"/>
       <c r="J168" s="48"/>
@@ -15912,16 +15904,16 @@
       </c>
       <c r="D169" s="47"/>
       <c r="E169" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F169" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G169" s="48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H169" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I169" s="48"/>
       <c r="J169" s="48"/>
@@ -15929,10 +15921,10 @@
       <c r="L169" s="49"/>
       <c r="M169" s="48"/>
       <c r="N169" s="48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O169" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P169" s="48"/>
       <c r="Q169" s="48"/>
@@ -15947,10 +15939,10 @@
       <c r="Z169" s="48"/>
       <c r="AA169" s="48"/>
       <c r="AB169" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC169" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD169" s="48"/>
       <c r="AE169" s="48"/>
@@ -15961,10 +15953,10 @@
       <c r="AJ169" s="48"/>
       <c r="AK169" s="48"/>
       <c r="AL169" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM169" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN169" s="48"/>
       <c r="AO169" s="48"/>
@@ -15990,16 +15982,16 @@
       </c>
       <c r="D170" s="47"/>
       <c r="E170" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F170" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G170" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H170" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I170" s="48"/>
       <c r="J170" s="48"/>
@@ -16021,10 +16013,10 @@
       <c r="Z170" s="48"/>
       <c r="AA170" s="48"/>
       <c r="AB170" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC170" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD170" s="48"/>
       <c r="AE170" s="48"/>
@@ -16060,16 +16052,16 @@
       </c>
       <c r="D171" s="47"/>
       <c r="E171" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F171" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G171" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H171" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I171" s="48"/>
       <c r="J171" s="48"/>
@@ -16091,10 +16083,10 @@
       <c r="Z171" s="48"/>
       <c r="AA171" s="48"/>
       <c r="AB171" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC171" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD171" s="48"/>
       <c r="AE171" s="48"/>
@@ -16105,10 +16097,10 @@
       <c r="AJ171" s="48"/>
       <c r="AK171" s="48"/>
       <c r="AL171" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM171" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN171" s="48"/>
       <c r="AO171" s="48"/>
@@ -16134,16 +16126,16 @@
       </c>
       <c r="D172" s="47"/>
       <c r="E172" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F172" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G172" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H172" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I172" s="48"/>
       <c r="J172" s="48"/>
@@ -16165,10 +16157,10 @@
       <c r="Z172" s="48"/>
       <c r="AA172" s="48"/>
       <c r="AB172" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC172" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD172" s="48"/>
       <c r="AE172" s="48"/>
@@ -16204,16 +16196,16 @@
       </c>
       <c r="D173" s="47"/>
       <c r="E173" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F173" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G173" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H173" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I173" s="48"/>
       <c r="J173" s="48"/>
@@ -16221,10 +16213,10 @@
       <c r="L173" s="49"/>
       <c r="M173" s="48"/>
       <c r="N173" s="48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O173" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P173" s="48"/>
       <c r="Q173" s="48"/>
@@ -16249,10 +16241,10 @@
       <c r="AJ173" s="48"/>
       <c r="AK173" s="48"/>
       <c r="AL173" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM173" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN173" s="48"/>
       <c r="AO173" s="48"/>
@@ -16278,16 +16270,16 @@
       </c>
       <c r="D174" s="47"/>
       <c r="E174" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F174" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G174" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H174" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I174" s="48"/>
       <c r="J174" s="48"/>
